--- a/transaction3.xlsx
+++ b/transaction3.xlsx
@@ -162,6 +162,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="02c212"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="d62b00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="f5ad31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -446,7 +563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -538,5 +655,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/transaction3.xlsx
+++ b/transaction3.xlsx
@@ -252,6 +252,186 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="02c212"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="d62b00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="f5ad31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="02c212"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="d62b00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="f5ad31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -271,6 +451,50 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -595,7 +819,7 @@
           <t xml:space="preserve">price </t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>corrected price</t>
         </is>
@@ -611,7 +835,7 @@
       <c r="C2" s="4" t="n">
         <v>5.95</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>5.355</v>
       </c>
     </row>
@@ -625,7 +849,7 @@
       <c r="C3" s="4" t="n">
         <v>6.95</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>6.255</v>
       </c>
     </row>
@@ -639,7 +863,7 @@
       <c r="C4" s="4" t="n">
         <v>7.95</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>7.155</v>
       </c>
     </row>

--- a/transaction3.xlsx
+++ b/transaction3.xlsx
@@ -432,6 +432,210 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#9F9C12"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#09BFB6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#DB5BEF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -495,6 +699,72 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/transaction3.xlsx
+++ b/transaction3.xlsx
@@ -252,6 +252,456 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#A2A48B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#CE5214"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#9FF507"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#F1EA61"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#95B4C3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#2B614B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#DB8179"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#0E6FF9"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#6BE4D8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#F4CBBC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#D1B6C5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#DD34E3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#B0E51C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#2357BC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#5F0758"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -588,6 +1038,276 @@
             <spPr>
               <a:solidFill>
                 <a:srgbClr val="#DB5BEF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#02CC0E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#83D909"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#4B865C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#318C54"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#E8F8E5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#B160F9"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#94653D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#E97FB0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#AF64B3"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -765,6 +1485,182 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="13" name="Chart 13"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="14" name="Chart 14"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/transaction3.xlsx
+++ b/transaction3.xlsx
@@ -654,6 +654,197 @@
             <spPr>
               <a:solidFill>
                 <a:srgbClr val="#5F0758"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#0092B4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#2601D2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#C044F2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="3"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#1407E2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#2863F1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#14CDD8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="#5B422C"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1661,6 +1852,50 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="15" name="Chart 15"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="16" name="Chart 16"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
